--- a/Pytestconcept/Input file/input file.xlsx
+++ b/Pytestconcept/Input file/input file.xlsx
@@ -12,19 +12,25 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Credentials" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>username</t>
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
   </si>
 </sst>
 </file>
@@ -345,7 +351,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -363,27 +369,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>123</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>123</v>
-      </c>
-      <c r="B3">
-        <v>123</v>
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>123</v>
-      </c>
-      <c r="B4">
-        <v>123</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
